--- a/spliced/walkingToRunning/2023-04-03_17-00-37/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-00-37/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.194094896316528</v>
+        <v>-0.3733085989952087</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9634650945663452</v>
+        <v>-2.073603868484497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0717056170105934</v>
+        <v>2.090381860733032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.414604663848877</v>
+        <v>0.200868934392929</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444681316614151</v>
+        <v>-1.047221541404724</v>
       </c>
       <c r="C3" t="n">
-        <v>1.771335005760193</v>
+        <v>2.184124946594238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.245760202407837</v>
+        <v>-1.194094896316528</v>
       </c>
       <c r="B4" t="n">
-        <v>3.215966701507568</v>
+        <v>0.9634650945663452</v>
       </c>
       <c r="C4" t="n">
-        <v>5.047555923461914</v>
+        <v>0.0717056170105934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3136537969112396</v>
+        <v>-1.414604663848877</v>
       </c>
       <c r="B5" t="n">
-        <v>3.28307843208313</v>
+        <v>0.444681316614151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4722450375556946</v>
+        <v>1.771335005760193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.299439907073975</v>
+        <v>-1.245760202407837</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4132560193538666</v>
+        <v>3.215966701507568</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0342882014811039</v>
+        <v>5.047555923461914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.066679716110229</v>
+        <v>-0.3136537969112396</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.99637222290039</v>
+        <v>3.28307843208313</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.815195083618164</v>
+        <v>0.4722450375556946</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.397727489471436</v>
+        <v>2.299439907073975</v>
       </c>
       <c r="B8" t="n">
-        <v>7.844008445739746</v>
+        <v>0.4132560193538666</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.625612258911133</v>
+        <v>-0.0342882014811039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.216499328613281</v>
+        <v>2.066679716110229</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.29652738571167</v>
+        <v>-1.99637222290039</v>
       </c>
       <c r="C9" t="n">
-        <v>5.164734840393066</v>
+        <v>-4.815195083618164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.98007869720459</v>
+        <v>3.397727489471436</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7972838878631592</v>
+        <v>7.844008445739746</v>
       </c>
       <c r="C10" t="n">
-        <v>8.478240013122559</v>
+        <v>-6.625612258911133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.500109195709229</v>
+        <v>-3.216499328613281</v>
       </c>
       <c r="B11" t="n">
-        <v>7.255982398986816</v>
+        <v>-3.29652738571167</v>
       </c>
       <c r="C11" t="n">
-        <v>6.759435653686523</v>
+        <v>5.164734840393066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.161522388458252</v>
+        <v>-6.98007869720459</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7580022215843201</v>
+        <v>0.7972838878631592</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.298507690429688</v>
+        <v>8.478240013122559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.58042049407959</v>
+        <v>-2.500109195709229</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.013983249664307</v>
+        <v>7.255982398986816</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.726245403289795</v>
+        <v>6.759435653686523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5662546157836914</v>
+        <v>4.161522388458252</v>
       </c>
       <c r="B14" t="n">
-        <v>0.348807543516159</v>
+        <v>-0.7580022215843201</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.386210918426514</v>
+        <v>-2.298507690429688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.530786514282227</v>
+        <v>3.58042049407959</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.427022218704224</v>
+        <v>-4.013983249664307</v>
       </c>
       <c r="C15" t="n">
-        <v>3.131677865982056</v>
+        <v>-4.726245403289795</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.868226051330566</v>
+        <v>0.5662546157836914</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.806755065917969</v>
+        <v>0.348807543516159</v>
       </c>
       <c r="C16" t="n">
-        <v>10.58639812469482</v>
+        <v>-7.386210918426514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.907955169677734</v>
+        <v>-5.530786514282227</v>
       </c>
       <c r="B17" t="n">
-        <v>14.34744739532471</v>
+        <v>-3.427022218704224</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4956808686256408</v>
+        <v>3.131677865982056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.698746919631958</v>
+        <v>-6.868226051330566</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.705373764038086</v>
+        <v>-1.806755065917969</v>
       </c>
       <c r="C18" t="n">
-        <v>1.454951524734497</v>
+        <v>10.58639812469482</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.464091300964356</v>
+        <v>1.907955169677734</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.321527123451233</v>
+        <v>14.34744739532471</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.915080547332764</v>
+        <v>0.4956808686256408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.413990020751953</v>
+        <v>-0.698746919631958</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.110638856887817</v>
+        <v>-6.705373764038086</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.591172218322754</v>
+        <v>1.454951524734497</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>6.464091300964356</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.321527123451233</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-5.915080547332764</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.413990020751953</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.110638856887817</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.591172218322754</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-1.979194760322571</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>1.858819842338562</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>3.587078332901001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-9.171860694885254</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-10.49505233764648</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.089466571807861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.832921981811523</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-5.742907047271729</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.470998287200928</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.7526758909225464</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-7.854794025421143</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5755757093429565</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8.307531356811523</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.279134750366211</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.9227187633514404</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.3331458568573</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.669769525527954</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.161337971687317</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.678790211677551</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.915562152862549</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.480551958084106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-8.003265380859375</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.636179566383362</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.630586981773376</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.040297269821167</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.371345281600952</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.342917442321777</v>
       </c>
     </row>
   </sheetData>
